--- a/result/results.xlsx
+++ b/result/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Cat_Dog_Classfiy</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">46.4Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fps(GTX1650)</t>
   </si>
   <si>
     <t xml:space="preserve">Accuracy(%)</t>
@@ -188,9 +191,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -406,7 +410,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,6 +451,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,11 +471,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -471,19 +483,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,11 +499,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,18 +588,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I50"/>
+  <dimension ref="B2:F51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -645,720 +653,736 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="10" t="n">
+        <v>1243.09645493502</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>552.096078033428</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>461.365050172759</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>419.34856473907</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15" t="n">
         <v>0.919695688926458</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D10" s="15" t="n">
         <v>0.936601859678783</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E10" s="15" t="n">
         <v>0.94843617920541</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F10" s="16" t="n">
         <v>0.980289621882542</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15" t="n">
         <v>0.958970233306516</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D11" s="15" t="n">
         <v>0.97787610619469</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E11" s="15" t="n">
         <v>0.981094127111826</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F11" s="16" t="n">
         <v>0.980289621882542</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="n">
         <v>0.73469387755102</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D13" s="19" t="n">
         <v>0.795918367346938</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E13" s="19" t="n">
         <v>0.846938775510204</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F13" s="20" t="n">
         <v>0.86734693877551</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="18" t="n">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="19" t="n">
         <v>0.75</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D14" s="19" t="n">
         <v>0.69</v>
       </c>
-      <c r="E13" s="18" t="n">
+      <c r="E14" s="19" t="n">
         <v>0.72</v>
       </c>
-      <c r="F13" s="19" t="n">
+      <c r="F14" s="20" t="n">
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="18" t="n">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="19" t="n">
         <v>0.68</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D15" s="19" t="n">
         <v>0.73</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="E15" s="19" t="n">
         <v>0.81</v>
       </c>
-      <c r="F14" s="19" t="n">
+      <c r="F15" s="20" t="n">
         <v>0.86</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="18" t="n">
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="19" t="n">
         <v>0.772727272727272</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D16" s="19" t="n">
         <v>0.806818181818181</v>
       </c>
-      <c r="E15" s="18" t="n">
+      <c r="E16" s="19" t="n">
         <v>0.875</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F16" s="20" t="n">
         <v>0.897727272727272</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="18" t="n">
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="19" t="n">
         <v>0.68</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D17" s="19" t="n">
         <v>0.78</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="E17" s="19" t="n">
         <v>0.82</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F17" s="20" t="n">
         <v>0.78</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="18" t="n">
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="19" t="n">
         <v>0.824742268041237</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D18" s="19" t="n">
         <v>0.896907216494845</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E18" s="19" t="n">
         <v>0.90721649484536</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="F18" s="20" t="n">
         <v>0.886597938144329</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="18" t="n">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="19" t="n">
         <v>0.71</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D19" s="19" t="n">
         <v>0.72</v>
       </c>
-      <c r="E18" s="18" t="n">
+      <c r="E19" s="19" t="n">
         <v>0.81</v>
       </c>
-      <c r="F18" s="19" t="n">
+      <c r="F19" s="20" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="18" t="n">
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="19" t="n">
         <v>0.58</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D20" s="19" t="n">
         <v>0.76</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="E20" s="19" t="n">
         <v>0.8</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="F20" s="20" t="n">
         <v>0.79</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="18" t="n">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="19" t="n">
         <v>0.59</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D21" s="19" t="n">
         <v>0.63</v>
       </c>
-      <c r="E20" s="18" t="n">
+      <c r="E21" s="19" t="n">
         <v>0.71</v>
       </c>
-      <c r="F20" s="19" t="n">
+      <c r="F21" s="20" t="n">
         <v>0.67</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="18" t="n">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="19" t="n">
         <v>0.57</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D22" s="19" t="n">
         <v>0.7</v>
       </c>
-      <c r="E21" s="18" t="n">
+      <c r="E22" s="19" t="n">
         <v>0.75</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="F22" s="20" t="n">
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="18" t="n">
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="19" t="n">
         <v>0.76</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D23" s="19" t="n">
         <v>0.78</v>
       </c>
-      <c r="E22" s="18" t="n">
+      <c r="E23" s="19" t="n">
         <v>0.82</v>
       </c>
-      <c r="F22" s="19" t="n">
+      <c r="F23" s="20" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="18" t="n">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="19" t="n">
         <v>0.75</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D24" s="19" t="n">
         <v>0.84</v>
       </c>
-      <c r="E23" s="18" t="n">
+      <c r="E24" s="19" t="n">
         <v>0.92</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="F24" s="20" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="18" t="n">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="19" t="n">
         <v>0.62</v>
       </c>
-      <c r="D24" s="18" t="n">
+      <c r="D25" s="19" t="n">
         <v>0.72</v>
       </c>
-      <c r="E24" s="18" t="n">
+      <c r="E25" s="19" t="n">
         <v>0.69</v>
       </c>
-      <c r="F24" s="19" t="n">
+      <c r="F25" s="20" t="n">
         <v>0.81</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="18" t="n">
+    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="19" t="n">
         <v>0.18</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D26" s="19" t="n">
         <v>0.03</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E26" s="19" t="n">
         <v>0.43</v>
       </c>
-      <c r="F25" s="19" t="n">
+      <c r="F26" s="20" t="n">
         <v>0.29</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="18" t="n">
+    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="19" t="n">
         <v>0.61</v>
       </c>
-      <c r="D26" s="18" t="n">
+      <c r="D27" s="19" t="n">
         <v>0.69</v>
       </c>
-      <c r="E26" s="18" t="n">
+      <c r="E27" s="19" t="n">
         <v>0.79</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F27" s="20" t="n">
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="18" t="n">
+    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="19" t="n">
         <v>0.74</v>
       </c>
-      <c r="D27" s="18" t="n">
+      <c r="D28" s="19" t="n">
         <v>0.78</v>
       </c>
-      <c r="E27" s="18" t="n">
+      <c r="E28" s="19" t="n">
         <v>0.83</v>
       </c>
-      <c r="F27" s="19" t="n">
+      <c r="F28" s="20" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="18" t="n">
+    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="19" t="n">
         <v>0.717171717171717</v>
       </c>
-      <c r="D28" s="18" t="n">
+      <c r="D29" s="19" t="n">
         <v>0.747474747474747</v>
       </c>
-      <c r="E28" s="18" t="n">
+      <c r="E29" s="19" t="n">
         <v>0.808080808080808</v>
       </c>
-      <c r="F28" s="19" t="n">
+      <c r="F29" s="20" t="n">
         <v>0.868686868686868</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="18" t="n">
+    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="19" t="n">
         <v>0.34</v>
       </c>
-      <c r="D29" s="18" t="n">
+      <c r="D30" s="19" t="n">
         <v>0.49</v>
       </c>
-      <c r="E29" s="18" t="n">
+      <c r="E30" s="19" t="n">
         <v>0.52</v>
       </c>
-      <c r="F29" s="19" t="n">
+      <c r="F30" s="20" t="n">
         <v>0.55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="18" t="n">
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="19" t="n">
         <v>0.59</v>
       </c>
-      <c r="D30" s="18" t="n">
+      <c r="D31" s="19" t="n">
         <v>0.66</v>
       </c>
-      <c r="E30" s="18" t="n">
+      <c r="E31" s="19" t="n">
         <v>0.73</v>
       </c>
-      <c r="F30" s="19" t="n">
+      <c r="F31" s="20" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="18" t="n">
+    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="19" t="n">
         <v>0.64</v>
       </c>
-      <c r="D31" s="18" t="n">
+      <c r="D32" s="19" t="n">
         <v>0.76</v>
       </c>
-      <c r="E31" s="18" t="n">
+      <c r="E32" s="19" t="n">
         <v>0.72</v>
       </c>
-      <c r="F31" s="19" t="n">
+      <c r="F32" s="20" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="18" t="n">
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="19" t="n">
         <v>0.87</v>
       </c>
-      <c r="D32" s="18" t="n">
+      <c r="D33" s="19" t="n">
         <v>0.87</v>
       </c>
-      <c r="E32" s="18" t="n">
+      <c r="E33" s="19" t="n">
         <v>0.88</v>
       </c>
-      <c r="F32" s="19" t="n">
+      <c r="F33" s="20" t="n">
         <v>0.93</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="18" t="n">
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="19" t="n">
         <v>0.7</v>
       </c>
-      <c r="D33" s="18" t="n">
+      <c r="D34" s="19" t="n">
         <v>0.81</v>
       </c>
-      <c r="E33" s="18" t="n">
+      <c r="E34" s="19" t="n">
         <v>0.85</v>
       </c>
-      <c r="F33" s="19" t="n">
+      <c r="F34" s="20" t="n">
         <v>0.87</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="18" t="n">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="19" t="n">
         <v>0.68</v>
       </c>
-      <c r="D34" s="18" t="n">
+      <c r="D35" s="19" t="n">
         <v>0.84</v>
       </c>
-      <c r="E34" s="18" t="n">
+      <c r="E35" s="19" t="n">
         <v>0.86</v>
       </c>
-      <c r="F34" s="19" t="n">
+      <c r="F35" s="20" t="n">
         <v>0.88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="18" t="n">
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="19" t="n">
         <v>0.82</v>
       </c>
-      <c r="D35" s="18" t="n">
+      <c r="D36" s="19" t="n">
         <v>0.85</v>
       </c>
-      <c r="E35" s="18" t="n">
+      <c r="E36" s="19" t="n">
         <v>0.91</v>
       </c>
-      <c r="F35" s="19" t="n">
+      <c r="F36" s="20" t="n">
         <v>0.92</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="18" t="n">
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="19" t="n">
         <v>0.808080808080808</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D37" s="19" t="n">
         <v>0.878787878787878</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E37" s="19" t="n">
         <v>0.919191919191919</v>
       </c>
-      <c r="F36" s="19" t="n">
+      <c r="F37" s="20" t="n">
         <v>0.949494949494949</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="18" t="n">
+    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="19" t="n">
         <v>0.81</v>
       </c>
-      <c r="D37" s="18" t="n">
+      <c r="D38" s="19" t="n">
         <v>0.84</v>
       </c>
-      <c r="E37" s="18" t="n">
+      <c r="E38" s="19" t="n">
         <v>0.86</v>
       </c>
-      <c r="F37" s="19" t="n">
+      <c r="F38" s="20" t="n">
         <v>0.92</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="18" t="n">
+    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="19" t="n">
         <v>0.64</v>
       </c>
-      <c r="D38" s="18" t="n">
+      <c r="D39" s="19" t="n">
         <v>0.72</v>
       </c>
-      <c r="E38" s="18" t="n">
+      <c r="E39" s="19" t="n">
         <v>0.74</v>
       </c>
-      <c r="F38" s="19" t="n">
+      <c r="F39" s="20" t="n">
         <v>0.76</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="18" t="n">
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="19" t="n">
         <v>0.64</v>
       </c>
-      <c r="D39" s="18" t="n">
+      <c r="D40" s="19" t="n">
         <v>0.79</v>
       </c>
-      <c r="E39" s="18" t="n">
+      <c r="E40" s="19" t="n">
         <v>0.83</v>
       </c>
-      <c r="F39" s="19" t="n">
+      <c r="F40" s="20" t="n">
         <v>0.95</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="18" t="n">
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="19" t="n">
         <v>0.68</v>
       </c>
-      <c r="D40" s="18" t="n">
+      <c r="D41" s="19" t="n">
         <v>0.76</v>
       </c>
-      <c r="E40" s="18" t="n">
+      <c r="E41" s="19" t="n">
         <v>0.84</v>
       </c>
-      <c r="F40" s="19" t="n">
+      <c r="F41" s="20" t="n">
         <v>0.78</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="18" t="n">
+    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="19" t="n">
         <v>0.83</v>
       </c>
-      <c r="D41" s="18" t="n">
+      <c r="D42" s="19" t="n">
         <v>0.85</v>
       </c>
-      <c r="E41" s="18" t="n">
+      <c r="E42" s="19" t="n">
         <v>0.87</v>
       </c>
-      <c r="F41" s="19" t="n">
+      <c r="F42" s="20" t="n">
         <v>0.89</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="18" t="n">
+    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="19" t="n">
         <v>0.83</v>
       </c>
-      <c r="D42" s="18" t="n">
+      <c r="D43" s="19" t="n">
         <v>0.87</v>
       </c>
-      <c r="E42" s="18" t="n">
+      <c r="E43" s="19" t="n">
         <v>0.88</v>
       </c>
-      <c r="F42" s="19" t="n">
+      <c r="F43" s="20" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="18" t="n">
+    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="19" t="n">
         <v>0.93</v>
       </c>
-      <c r="D43" s="18" t="n">
+      <c r="D44" s="19" t="n">
         <v>0.96</v>
       </c>
-      <c r="E43" s="18" t="n">
+      <c r="E44" s="19" t="n">
         <v>0.96</v>
       </c>
-      <c r="F43" s="19" t="n">
+      <c r="F44" s="20" t="n">
         <v>0.94</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="18" t="n">
+    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="19" t="n">
         <v>0.727272727272727</v>
       </c>
-      <c r="D44" s="18" t="n">
+      <c r="D45" s="19" t="n">
         <v>0.838383838383838</v>
       </c>
-      <c r="E44" s="18" t="n">
+      <c r="E45" s="19" t="n">
         <v>0.838383838383838</v>
       </c>
-      <c r="F44" s="19" t="n">
+      <c r="F45" s="20" t="n">
         <v>0.939393939393939</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="18" t="n">
+    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="19" t="n">
         <v>0.78</v>
       </c>
-      <c r="D45" s="18" t="n">
+      <c r="D46" s="19" t="n">
         <v>0.88</v>
       </c>
-      <c r="E45" s="18" t="n">
+      <c r="E46" s="19" t="n">
         <v>0.9</v>
       </c>
-      <c r="F45" s="19" t="n">
+      <c r="F46" s="20" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="18" t="n">
+    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="19" t="n">
         <v>0.269662921348314</v>
       </c>
-      <c r="D46" s="18" t="n">
+      <c r="D47" s="19" t="n">
         <v>0.404494382022471</v>
       </c>
-      <c r="E46" s="18" t="n">
+      <c r="E47" s="19" t="n">
         <v>0.415730337078651</v>
       </c>
-      <c r="F46" s="19" t="n">
+      <c r="F47" s="20" t="n">
         <v>0.49438202247191</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="18" t="n">
+    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="19" t="n">
         <v>0.57</v>
       </c>
-      <c r="D47" s="18" t="n">
+      <c r="D48" s="19" t="n">
         <v>0.55</v>
       </c>
-      <c r="E47" s="18" t="n">
+      <c r="E48" s="19" t="n">
         <v>0.61</v>
       </c>
-      <c r="F47" s="19" t="n">
+      <c r="F48" s="20" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="18" t="n">
+    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="19" t="n">
         <v>0.74</v>
       </c>
-      <c r="D48" s="18" t="n">
+      <c r="D49" s="19" t="n">
         <v>0.86</v>
       </c>
-      <c r="E48" s="18" t="n">
+      <c r="E49" s="19" t="n">
         <v>0.86</v>
       </c>
-      <c r="F48" s="19" t="n">
+      <c r="F49" s="20" t="n">
         <v>0.86</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="21" t="n">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="22" t="n">
         <v>0.680839465794494</v>
       </c>
-      <c r="D49" s="21" t="n">
+      <c r="D50" s="22" t="n">
         <v>0.753338784409921</v>
       </c>
-      <c r="E49" s="21" t="n">
+      <c r="E50" s="22" t="n">
         <v>0.793404197328972</v>
       </c>
-      <c r="F49" s="22" t="n">
+      <c r="F50" s="23" t="n">
         <v>0.812755519215045</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1368,9 +1392,9 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/result/results.xlsx
+++ b/result/results.xlsx
@@ -591,10 +591,10 @@
   <dimension ref="B2:F51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.08"/>
@@ -702,7 +702,7 @@
         <v>0.94843617920541</v>
       </c>
       <c r="F10" s="16" t="n">
-        <v>0.980289621882542</v>
+        <v>0.950972104818259</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
